--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -90,30 +90,6 @@
   </si>
   <si>
     <r>
-      <t>L'attribut</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> lang</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> de la balise html</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>La balise</t>
     </r>
     <r>
@@ -1805,6 +1781,60 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> footer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>La valeur de l'attribut</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> de la balise</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> est invalide</t>
     </r>
   </si>
 </sst>
@@ -2186,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2246,13 +2276,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>10</v>
@@ -2266,13 +2296,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
@@ -2286,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>10</v>
@@ -2306,79 +2336,79 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -2386,13 +2416,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>10</v>
@@ -2403,60 +2433,60 @@
     </row>
     <row r="10" spans="1:26" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2464,13 +2494,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="3" t="s">
@@ -2486,10 +2516,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="3" t="s">
@@ -2498,20 +2528,20 @@
     </row>
     <row r="15" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -923,78 +923,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">L'attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">atl </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sur les balises </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">img, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>utilisation des</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> images de texte.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Il est très important que le texte du lien ait un sens.Le texte du lien doit à lui seul transmettre la fonction et le but du lien. Il doit également être unique et facile à exprimer à haute voix. Il faut tenir compte des ces directives lors de la rédaction du texte du lens:                                                                                           
 </t>
     </r>
@@ -1039,30 +967,6 @@
       </rPr>
       <t xml:space="preserve"> Utilisez un texte de lien unique dans la mesure du possible. 
 Il est acceptable de lier une phrase complète, mais évitez plus longtemps.                              </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le texte </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>alternatif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> des images ne décrit pas correctement les images et dégrade fortement l'accessibilité aux personnes qui utilisent un lecteur d'écran ou qui ont une connexion lente. Également, les images de texte sortent de l'écran sur les resolutions mobile. Une fois redimensionnée pour les adapter aux petites résolutions, le texte devient illisible.</t>
     </r>
   </si>
   <si>
@@ -1835,6 +1739,64 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> est invalide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utilisation des</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> images de texte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> avec un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>texte alternatif inadéquat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le texte </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alternatif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> des images ne décrit pas correctement les images et dégrade fortement l'accessibilité aux personnes qui utilisent un lecteur d'écran ou qui ont une connexion lente.</t>
     </r>
   </si>
 </sst>
@@ -2216,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2316,10 +2278,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>31</v>
@@ -2336,39 +2298,39 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,7 +2338,7 @@
         <v>40</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>41</v>
@@ -2396,13 +2358,13 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>10</v>
@@ -2416,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -2436,19 +2398,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2456,19 +2418,19 @@
         <v>32</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,13 +2493,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3" t="s">

--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Catégorie</t>
   </si>
@@ -1797,6 +1797,82 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> des images ne décrit pas correctement les images et dégrade fortement l'accessibilité aux personnes qui utilisent un lecteur d'écran ou qui ont une connexion lente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Les éléments d'en-tête ne sont pas dans un ordre séquentiel décroissant</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
+  </si>
+  <si>
+    <r>
+      <t>On évitera de sauter des niveaux de titre : on commence toujours par</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> puis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;h2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> et ainsi de suite. On essaye également d'avoir un seul titre de niveau 1 sur une page. Jusqu'à HTML5, il fallait éviter d'utiliser plus d'un élément &lt;h1&gt; sur une même page. En HTML5, il est possible d'utiliser les balises sémantiques pour créer une hiérarchie valide avec plusieurs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;h1&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> les éléments de titre de section 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;h1&gt;-&lt;h6&gt;</t>
     </r>
   </si>
 </sst>
@@ -2176,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2413,117 +2489,121 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G14" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2570,7 +2650,14 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3538,22 +3625,24 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F13" r:id="rId3"/>
+    <hyperlink ref="F14" r:id="rId3"/>
     <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F12" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId5"/>
     <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="F15" r:id="rId7" location="fallbacks"/>
+    <hyperlink ref="F16" r:id="rId7" location="fallbacks"/>
     <hyperlink ref="F7" r:id="rId8"/>
     <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10" location="label-buttons-and-links"/>
+    <hyperlink ref="F12" r:id="rId10" location="label-buttons-and-links"/>
     <hyperlink ref="F5" r:id="rId11"/>
     <hyperlink ref="F6" r:id="rId12" display="https://blog.logrocket.com/the-complete-best-practices-for-minifying-css/"/>
+    <hyperlink ref="F11" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId13"/>
+  <pageSetup orientation="landscape" r:id="rId14"/>
 </worksheet>
 </file>
--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -2254,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
